--- a/inputs/beam_properties.xlsx
+++ b/inputs/beam_properties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="mass" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t xml:space="preserve">Mass Data (Material FoR)</t>
   </si>
@@ -41,6 +41,15 @@
     <t xml:space="preserve">izz</t>
   </si>
   <si>
+    <t xml:space="preserve">xcg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ycg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zcg</t>
+  </si>
+  <si>
     <t xml:space="preserve">[-]</t>
   </si>
   <si>
@@ -50,13 +59,25 @@
     <t xml:space="preserve">[kgm]</t>
   </si>
   <si>
-    <t xml:space="preserve">inboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dihedral</t>
+    <t xml:space="preserve">[m]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loutboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ldihedral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rinboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Routboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rdihedral</t>
   </si>
   <si>
     <t xml:space="preserve">boom</t>
@@ -84,6 +105,15 @@
   </si>
   <si>
     <t xml:space="preserve">eiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k34</t>
   </si>
   <si>
     <t xml:space="preserve">[Nm2]</t>
@@ -102,6 +132,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -172,7 +203,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -265,10 +296,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -300,27 +331,45 @@
       <c r="E2" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.438</v>
@@ -334,10 +383,20 @@
       <c r="E4" s="3" t="n">
         <v>0.0207</v>
       </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">0.2*(0.435 - 0.288)</f>
+        <v>0.0294</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.361</v>
@@ -351,10 +410,20 @@
       <c r="E5" s="3" t="n">
         <v>0.0184</v>
       </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">0.2*(0.435 - 0.288)</f>
+        <v>0.0294</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.428</v>
@@ -368,39 +437,148 @@
       <c r="E6" s="3" t="n">
         <v>0.0202</v>
       </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">0.2*(0.395 - 0.288)</f>
+        <v>0.0214</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.07</v>
+        <v>0.438</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>2.17E-005</v>
+        <v>0.000654</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0.00179</v>
+        <v>0.0134</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.00179</v>
+        <v>0.0207</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">-0.2*(0.435 - 0.288)</f>
+        <v>-0.0294</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>0.000581</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0.0184</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">-0.2*(0.435 - 0.288)</f>
+        <v>-0.0294</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>6.4E-006</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0.0131</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0.0202</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">-0.2*(0.395 - 0.288)</f>
+        <v>-0.0214</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>2.17E-005</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.00179</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0.00179</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="0" t="n">
         <v>0.24</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C11" s="3" t="n">
         <v>0.000171</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D11" s="3" t="n">
         <v>0.00011</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E11" s="3" t="n">
         <v>0.00597</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -422,10 +600,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -435,7 +613,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -448,50 +626,59 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>2140000</v>
@@ -513,10 +700,19 @@
       <c r="G4" s="3" t="n">
         <v>6350</v>
       </c>
+      <c r="H4" s="3" t="n">
+        <v>1540</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>-49100</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>-46.34</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>2140000</v>
@@ -538,10 +734,19 @@
       <c r="G5" s="3" t="n">
         <v>6350</v>
       </c>
+      <c r="H5" s="3" t="n">
+        <v>1540</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>-49100</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>-46.34</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>2140000</v>
@@ -563,63 +768,199 @@
       <c r="G6" s="3" t="n">
         <v>6350</v>
       </c>
+      <c r="H6" s="3" t="n">
+        <v>1540</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>-49100</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>-46.34</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <f aca="false">B6</f>
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>2140000</v>
       </c>
       <c r="C7" s="4" t="n">
+        <f aca="false">AVERAGE(B7,E7,F7,G7)</f>
+        <v>536628</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <f aca="false">AVERAGE(B7,E7,F7,G7)</f>
+        <v>536628</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>105</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>6350</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <f aca="false">-H4</f>
+        <v>-1540</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <f aca="false">-I4</f>
+        <v>49100</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <f aca="false">-J4</f>
+        <v>46.34</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>2140000</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <f aca="false">AVERAGE(B8,E8,F8,G8)</f>
+        <v>536628</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <f aca="false">AVERAGE(B8,E8,F8,G8)</f>
+        <v>536628</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>105</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>6350</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <f aca="false">-H5</f>
+        <v>-1540</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <f aca="false">-I5</f>
+        <v>49100</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <f aca="false">-J5</f>
+        <v>46.34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>2140000</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <f aca="false">AVERAGE(B9,E9,F9,G9)</f>
+        <v>536620.75</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <f aca="false">AVERAGE(B9,E9,F9,G9)</f>
+        <v>536620.75</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>6350</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <f aca="false">-H6</f>
+        <v>-1540</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <f aca="false">-I6</f>
+        <v>49100</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <f aca="false">-J6</f>
+        <v>46.34</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2140000</v>
+      </c>
+      <c r="C10" s="4" t="n">
         <f aca="false">C6</f>
         <v>536620.75</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D10" s="4" t="n">
         <f aca="false">D6</f>
         <v>536620.75</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E10" s="4" t="n">
+        <f aca="false">10*E6</f>
+        <v>540</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <f aca="false">10*F6</f>
+        <v>790</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <f aca="false">F10</f>
+        <v>790</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>2140000</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <f aca="false">C6</f>
+        <v>536620.75</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <f aca="false">D6</f>
+        <v>536620.75</v>
+      </c>
+      <c r="E11" s="4" t="n">
         <f aca="false">E6</f>
         <v>54</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F11" s="4" t="n">
         <f aca="false">F6</f>
         <v>79</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G11" s="4" t="n">
         <f aca="false">G6</f>
         <v>6350</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <f aca="false">B6</f>
-        <v>2140000</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <f aca="false">C6</f>
-        <v>536620.75</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <f aca="false">D6</f>
-        <v>536620.75</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <f aca="false">E6</f>
-        <v>54</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <f aca="false">F6</f>
-        <v>79</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <f aca="false">G6</f>
-        <v>6350</v>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -628,7 +969,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/inputs/beam_properties.xlsx
+++ b/inputs/beam_properties.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t xml:space="preserve">Mass Data (Material FoR)</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t xml:space="preserve">tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cfin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lfin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rfin</t>
   </si>
   <si>
     <t xml:space="preserve">Stiffness Data (Material FoR)</t>
@@ -198,13 +207,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -296,10 +313,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -375,7 +392,8 @@
         <v>0.438</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.000654</v>
+        <f aca="false">D4+E4</f>
+        <v>0.0341</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0.0134</v>
@@ -402,7 +420,8 @@
         <v>0.361</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>0.000581</v>
+        <f aca="false">D5+E5</f>
+        <v>0.0303</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>0.0119</v>
@@ -429,7 +448,8 @@
         <v>0.428</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>6.4E-006</v>
+        <f aca="false">D6+E6</f>
+        <v>0.0333</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>0.0131</v>
@@ -456,7 +476,8 @@
         <v>0.438</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0.000654</v>
+        <f aca="false">D7+E7</f>
+        <v>0.0341</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>0.0134</v>
@@ -483,7 +504,8 @@
         <v>0.361</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0.000581</v>
+        <f aca="false">D8+E8</f>
+        <v>0.0303</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>0.0119</v>
@@ -510,7 +532,8 @@
         <v>0.428</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>6.4E-006</v>
+        <f aca="false">D9+E9</f>
+        <v>0.0333</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>0.0131</v>
@@ -529,55 +552,138 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>2.17E-005</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>0.00179</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>0.00179</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B10" s="4" t="n">
+        <v>0.05765</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <f aca="false">0.00000000291</f>
+        <v>2.91E-009</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.46E-009</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.46E-009</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="4" t="n">
         <v>0.24</v>
       </c>
-      <c r="C11" s="3" t="n">
-        <v>0.000171</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>0.00011</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>0.00597</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="0" t="n">
+      <c r="C11" s="5" t="n">
+        <f aca="false">D11+E11</f>
+        <v>0.00015991</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>2.91E-006</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.000157</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <f aca="false">D12+E12</f>
+        <v>0.01868</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0.00598</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0.0127</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <f aca="false">D13+E13</f>
+        <v>0.0047</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0.00243</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>0.00227</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <f aca="false">D14+E14</f>
+        <v>0.0047</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>0.00243</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>0.00227</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -600,10 +706,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -613,7 +719,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -626,31 +732,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,22 +764,22 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -683,11 +789,11 @@
       <c r="B4" s="3" t="n">
         <v>2140000</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="6" t="n">
         <f aca="false">AVERAGE(B4,E4,F4,G4)</f>
         <v>536628</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="6" t="n">
         <f aca="false">AVERAGE(B4,E4,F4,G4)</f>
         <v>536628</v>
       </c>
@@ -717,11 +823,11 @@
       <c r="B5" s="3" t="n">
         <v>2140000</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="6" t="n">
         <f aca="false">AVERAGE(B5,E5,F5,G5)</f>
         <v>536628</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="6" t="n">
         <f aca="false">AVERAGE(B5,E5,F5,G5)</f>
         <v>536628</v>
       </c>
@@ -751,11 +857,11 @@
       <c r="B6" s="3" t="n">
         <v>2140000</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="6" t="n">
         <f aca="false">AVERAGE(B6,E6,F6,G6)</f>
         <v>536620.75</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="6" t="n">
         <f aca="false">AVERAGE(B6,E6,F6,G6)</f>
         <v>536620.75</v>
       </c>
@@ -785,11 +891,11 @@
       <c r="B7" s="3" t="n">
         <v>2140000</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="6" t="n">
         <f aca="false">AVERAGE(B7,E7,F7,G7)</f>
         <v>536628</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="6" t="n">
         <f aca="false">AVERAGE(B7,E7,F7,G7)</f>
         <v>536628</v>
       </c>
@@ -803,8 +909,8 @@
         <v>6350</v>
       </c>
       <c r="H7" s="3" t="n">
-        <f aca="false">-H4</f>
-        <v>-1540</v>
+        <f aca="false">H4</f>
+        <v>1540</v>
       </c>
       <c r="I7" s="3" t="n">
         <f aca="false">-I4</f>
@@ -822,11 +928,11 @@
       <c r="B8" s="3" t="n">
         <v>2140000</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="6" t="n">
         <f aca="false">AVERAGE(B8,E8,F8,G8)</f>
         <v>536628</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="6" t="n">
         <f aca="false">AVERAGE(B8,E8,F8,G8)</f>
         <v>536628</v>
       </c>
@@ -840,8 +946,8 @@
         <v>6350</v>
       </c>
       <c r="H8" s="3" t="n">
-        <f aca="false">-H5</f>
-        <v>-1540</v>
+        <f aca="false">H5</f>
+        <v>1540</v>
       </c>
       <c r="I8" s="3" t="n">
         <f aca="false">-I5</f>
@@ -859,11 +965,11 @@
       <c r="B9" s="3" t="n">
         <v>2140000</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="6" t="n">
         <f aca="false">AVERAGE(B9,E9,F9,G9)</f>
         <v>536620.75</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="6" t="n">
         <f aca="false">AVERAGE(B9,E9,F9,G9)</f>
         <v>536620.75</v>
       </c>
@@ -877,8 +983,8 @@
         <v>6350</v>
       </c>
       <c r="H9" s="3" t="n">
-        <f aca="false">-H6</f>
-        <v>-1540</v>
+        <f aca="false">H6</f>
+        <v>1540</v>
       </c>
       <c r="I9" s="3" t="n">
         <f aca="false">-I6</f>
@@ -893,26 +999,27 @@
       <c r="A10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="6" t="n">
+        <f aca="false">B6</f>
         <v>2140000</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="6" t="n">
         <f aca="false">C6</f>
         <v>536620.75</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="6" t="n">
         <f aca="false">D6</f>
         <v>536620.75</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="6" t="n">
         <f aca="false">10*E6</f>
         <v>540</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="6" t="n">
         <f aca="false">10*F6</f>
         <v>790</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="6" t="n">
         <f aca="false">F10</f>
         <v>790</v>
       </c>
@@ -930,26 +1037,27 @@
       <c r="A11" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="6" t="n">
+        <f aca="false">B6</f>
         <v>2140000</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="6" t="n">
         <f aca="false">C6</f>
         <v>536620.75</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="6" t="n">
         <f aca="false">D6</f>
         <v>536620.75</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="6" t="n">
         <f aca="false">E6</f>
         <v>54</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="6" t="n">
         <f aca="false">F6</f>
         <v>79</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="6" t="n">
         <f aca="false">G6</f>
         <v>6350</v>
       </c>
@@ -960,6 +1068,120 @@
         <v>0</v>
       </c>
       <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <f aca="false">B11</f>
+        <v>2140000</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <f aca="false">C11</f>
+        <v>536620.75</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <f aca="false">D11</f>
+        <v>536620.75</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <f aca="false">5000</f>
+        <v>5000</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <f aca="false">G9</f>
+        <v>6350</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <f aca="false">G9</f>
+        <v>6350</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <f aca="false">B12</f>
+        <v>2140000</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <f aca="false">C12</f>
+        <v>536620.75</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <f aca="false">D12</f>
+        <v>536620.75</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <f aca="false">5000</f>
+        <v>5000</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <f aca="false">F12</f>
+        <v>6350</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <f aca="false">G12</f>
+        <v>6350</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <f aca="false">B13</f>
+        <v>2140000</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <f aca="false">C13</f>
+        <v>536620.75</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <f aca="false">D13</f>
+        <v>536620.75</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <f aca="false">5000</f>
+        <v>5000</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <f aca="false">G11</f>
+        <v>6350</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <f aca="false">G11</f>
+        <v>6350</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/inputs/beam_properties.xlsx
+++ b/inputs/beam_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfonsodelcarre/run/2019IFASD/UM-xhale/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0CD9ED-928E-D643-8F91-6B6D5C1D88DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D18C2A-DF7D-664D-9B13-3664DA60D4FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13080" yWindow="640" windowWidth="15560" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mass" sheetId="1" r:id="rId1"/>
@@ -206,14 +206,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -612,13 +612,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -659,13 +659,13 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
@@ -682,29 +682,29 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0.39400000000000002</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>8.0900000000000004E-4</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1.22E-5</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>7.9699999999999997E-4</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>6.4899999999999997E-6</v>
       </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
         <f>-0.2*(0.435 - 0.288)</f>
         <v>-2.9400000000000006E-2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -712,35 +712,35 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <f t="shared" ref="B5:I5" si="0">B4</f>
         <v>0.39400000000000002</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f t="shared" si="0"/>
         <v>8.0900000000000004E-4</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>1.22E-5</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>7.9699999999999997E-4</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>6.4899999999999997E-6</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>-2.9400000000000006E-2</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -749,28 +749,28 @@
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0.5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>8.0900000000000004E-4</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>1.22E-5</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>7.9699999999999997E-4</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>6.4899999999999997E-6</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6">
         <v>-2.1399999999999999E-2</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>0</v>
       </c>
     </row>
@@ -778,34 +778,34 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <f>B4</f>
         <v>0.39400000000000002</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f>C4</f>
         <v>8.0900000000000004E-4</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f>D4</f>
         <v>1.22E-5</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f>E4</f>
         <v>7.9699999999999997E-4</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f>F4</f>
         <v>6.4899999999999997E-6</v>
       </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
         <f>0.2*(0.435 - 0.288)</f>
         <v>2.9400000000000006E-2</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -813,34 +813,34 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <f>B7</f>
         <v>0.39400000000000002</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f>C7</f>
         <v>8.0900000000000004E-4</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>D7</f>
         <v>1.22E-5</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f>E7</f>
         <v>7.9699999999999997E-4</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f>F7</f>
         <v>6.4899999999999997E-6</v>
       </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <f>0.2*(0.435 - 0.288)</f>
         <v>2.9400000000000006E-2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -848,121 +848,121 @@
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <f>B6</f>
         <v>0.5</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f>C6</f>
         <v>8.0900000000000004E-4</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f>D6</f>
         <v>1.22E-5</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f>E6</f>
         <v>7.9699999999999997E-4</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f>F6</f>
         <v>6.4899999999999997E-6</v>
       </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <f>0.2*(0.395 - 0.288)</f>
         <v>2.1400000000000009E-2</v>
       </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>4.2900000000000001E-2</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>2.9100000000000001E-9</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>1.4599999999999999E-9</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>1.4599999999999999E-9</v>
       </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>0.26140000000000002</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>2.9100000000000001E-6</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>1.5699999999999999E-4</v>
       </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
         <v>-1.44E-2</v>
       </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>0.26140000000000002</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>2.9100000000000001E-6</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>1.5699999999999999E-4</v>
       </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
         <v>1.44E-2</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>0</v>
       </c>
     </row>
@@ -970,28 +970,28 @@
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>1E-8</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>2E-8</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>1E-8</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>1E-8</v>
       </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -999,28 +999,28 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>1E-8</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>2E-8</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>1E-8</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>1E-8</v>
       </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1028,28 +1028,28 @@
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>1E-8</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>2E-8</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>1E-8</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>1E-8</v>
       </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1057,28 +1057,28 @@
       <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>1E-8</v>
       </c>
-      <c r="C16" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="C16" s="4">
+        <v>2E-8</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1E-8</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1E-8</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1086,28 +1086,28 @@
       <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>1E-8</v>
       </c>
-      <c r="C17" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="C17" s="4">
+        <v>2E-8</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1E-8</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1E-8</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1118,25 +1118,25 @@
       <c r="B18">
         <v>0.50919999999999999</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
+        <v>3.1870000000000002E-3</v>
+      </c>
+      <c r="D18" s="4">
+        <v>9.3399999999999993E-5</v>
+      </c>
+      <c r="E18" s="4">
         <v>3.2799999999999999E-3</v>
       </c>
-      <c r="D18" s="5">
-        <v>9.3399999999999993E-5</v>
-      </c>
-      <c r="E18" s="5">
-        <v>3.1900000000000001E-3</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1147,25 +1147,25 @@
       <c r="B19">
         <v>0.32079999999999997</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
+        <v>8.1700000000000002E-4</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5.8799999999999999E-5</v>
+      </c>
+      <c r="E19" s="4">
         <v>8.7600000000000004E-4</v>
       </c>
-      <c r="D19" s="5">
-        <v>5.8799999999999999E-5</v>
-      </c>
-      <c r="E19" s="5">
-        <v>8.1700000000000002E-4</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1176,25 +1176,25 @@
       <c r="B20">
         <v>0.32079999999999997</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
+        <v>8.1700000000000002E-4</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5.8799999999999999E-5</v>
+      </c>
+      <c r="E20" s="4">
         <v>8.7600000000000004E-4</v>
       </c>
-      <c r="D20" s="5">
-        <v>5.8799999999999999E-5</v>
-      </c>
-      <c r="E20" s="5">
-        <v>8.1700000000000002E-4</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1225,14 +1225,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -1273,19 +1273,19 @@
       <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1293,33 +1293,33 @@
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>2140000</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <f t="shared" ref="C4:C15" si="0">10*B4</f>
         <v>21400000</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f t="shared" ref="D4:D15" si="1">C4</f>
         <v>21400000</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>59.3</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>112</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>6350</v>
       </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
         <v>46.3</v>
       </c>
     </row>
@@ -1327,33 +1327,33 @@
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>2140000</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <f t="shared" si="0"/>
         <v>21400000</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f t="shared" si="1"/>
         <v>21400000</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>59.3</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>112</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>6350</v>
       </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
         <f>J4</f>
         <v>46.3</v>
       </c>
@@ -1362,33 +1362,33 @@
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>2140000</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f t="shared" si="0"/>
         <v>21400000</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f t="shared" si="1"/>
         <v>21400000</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>59.3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>112</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>6350</v>
       </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
         <f>J4</f>
         <v>46.3</v>
       </c>
@@ -1397,35 +1397,35 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>2140000</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <f t="shared" si="0"/>
         <v>21400000</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f t="shared" si="1"/>
         <v>21400000</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>59.3</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>112</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>6350</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <f>H4</f>
         <v>0</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <f>-I4</f>
         <v>0</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>-46.3</v>
       </c>
     </row>
@@ -1433,35 +1433,35 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>2140000</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <f t="shared" si="0"/>
         <v>21400000</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f t="shared" si="1"/>
         <v>21400000</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>59.3</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>112</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>6350</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f>H5</f>
         <v>0</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f>-I5</f>
         <v>0</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <f>J7</f>
         <v>-46.3</v>
       </c>
@@ -1470,35 +1470,35 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>2140000</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <f t="shared" si="0"/>
         <v>21400000</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f t="shared" si="1"/>
         <v>21400000</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>59.3</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>112</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>6350</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <f>H6</f>
         <v>0</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <f>-I6</f>
         <v>0</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <f>J7</f>
         <v>-46.3</v>
       </c>
@@ -1507,24 +1507,24 @@
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>53900000</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <f t="shared" si="0"/>
         <v>539000000</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <f t="shared" si="1"/>
         <v>539000000</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>53900000</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>53900000</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>53900000</v>
       </c>
       <c r="H10">
@@ -1541,33 +1541,33 @@
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>3210000</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <f t="shared" si="0"/>
         <v>32100000</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <f t="shared" si="1"/>
         <v>32100000</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>21.4</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>91</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>4270</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>-3.7100000000000002E-4</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>-74400</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>2.26E-6</v>
       </c>
     </row>
@@ -1575,33 +1575,33 @@
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>3210000</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <f t="shared" si="0"/>
         <v>32100000</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <f t="shared" si="1"/>
         <v>32100000</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>21.4</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>91</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>4270</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>-3.7100000000000002E-4</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>74400</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>2.26E-6</v>
       </c>
     </row>
@@ -1609,24 +1609,24 @@
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>53900000</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <f t="shared" si="0"/>
         <v>539000000</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <f t="shared" si="1"/>
         <v>539000000</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>53900000</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>53900000</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>53900000</v>
       </c>
       <c r="H13">
@@ -1643,26 +1643,26 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <f>B13</f>
         <v>53900000</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f t="shared" si="0"/>
         <v>539000000</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <f t="shared" si="1"/>
         <v>539000000</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>53900000</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <f>F13</f>
         <v>53900000</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>53900000</v>
       </c>
       <c r="H14">
@@ -1679,25 +1679,25 @@
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <f>B14</f>
         <v>53900000</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f t="shared" si="0"/>
         <v>539000000</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <f t="shared" si="1"/>
         <v>539000000</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>53900000</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>53900000</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>53900000</v>
       </c>
       <c r="H15">
@@ -1711,20 +1711,20 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="5"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="5"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
